--- a/PaperRecurrence/赛题统计.xlsx
+++ b/PaperRecurrence/赛题统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,10 +548,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,64 +893,64 @@
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1306,10 +1306,10 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1342,10 +1342,10 @@
       <c r="M6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>82</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -1411,10 +1411,10 @@
       <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1470,10 +1470,10 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L8" s="1"/>
@@ -1497,12 +1497,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AD1:AE1"/>
@@ -1513,6 +1507,12 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
